--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Dropbox/CS383/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A106C2F-EC1F-B747-9762-45DB3FA3B2F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128D33F-7E93-4B7C-9BF5-8B53CFE46A62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -225,6 +223,9 @@
   </si>
   <si>
     <t>3,5</t>
+  </si>
+  <si>
+    <t>Complete total :</t>
   </si>
 </sst>
 </file>
@@ -259,7 +260,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -315,16 +322,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,7 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -357,6 +357,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,243 +685,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
-  <dimension ref="A1:BR60"/>
+  <dimension ref="A1:BR74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:68">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>4</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>5</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>6</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>7</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>8</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>9</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>10</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>11</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>12</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>13</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>14</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>15</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="2">
         <v>16</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>17</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="2">
         <v>18</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="2">
         <v>19</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="2">
         <v>20</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="2">
         <v>21</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="2">
         <v>22</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="2">
         <v>23</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="2">
         <v>24</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="2">
         <v>25</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="2">
         <v>26</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="2">
         <v>27</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="2">
         <v>28</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="2">
         <v>29</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="2">
         <v>30</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AM2" s="2">
         <v>31</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AN2" s="2">
         <v>32</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="2">
         <v>33</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AP2" s="2">
         <v>34</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AQ2" s="2">
         <v>35</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AR2" s="2">
         <v>36</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="2">
         <v>37</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AT2" s="2">
         <v>38</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AU2" s="2">
         <v>39</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AV2" s="2">
         <v>40</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AW2" s="2">
         <v>41</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AX2" s="2">
         <v>42</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AY2" s="2">
         <v>43</v>
       </c>
-      <c r="AZ2" s="4">
+      <c r="AZ2" s="2">
         <v>44</v>
       </c>
-      <c r="BA2" s="4">
+      <c r="BA2" s="2">
         <v>45</v>
       </c>
-      <c r="BB2" s="4">
+      <c r="BB2" s="2">
         <v>46</v>
       </c>
-      <c r="BC2" s="4">
+      <c r="BC2" s="2">
         <v>47</v>
       </c>
-      <c r="BD2" s="4">
+      <c r="BD2" s="2">
         <v>48</v>
       </c>
-      <c r="BE2" s="4">
+      <c r="BE2" s="2">
         <v>49</v>
       </c>
-      <c r="BF2" s="4">
+      <c r="BF2" s="2">
         <v>50</v>
       </c>
-      <c r="BG2" s="4">
+      <c r="BG2" s="2">
         <v>51</v>
       </c>
-      <c r="BH2" s="4">
-        <v>52</v>
-      </c>
-      <c r="BI2" s="4">
+      <c r="BH2" s="2">
+        <v>52</v>
+      </c>
+      <c r="BI2" s="2">
         <v>53</v>
       </c>
-      <c r="BJ2" s="4">
+      <c r="BJ2" s="2">
         <v>54</v>
       </c>
-      <c r="BK2" s="4">
+      <c r="BK2" s="2">
         <v>55</v>
       </c>
-      <c r="BL2" s="4">
+      <c r="BL2" s="2">
         <v>56</v>
       </c>
-      <c r="BM2" s="4">
+      <c r="BM2" s="2">
         <v>57</v>
       </c>
-      <c r="BN2" s="4">
+      <c r="BN2" s="2">
         <v>58</v>
       </c>
-      <c r="BO2" s="4">
+      <c r="BO2" s="2">
         <v>59</v>
       </c>
-      <c r="BP2" s="4">
+      <c r="BP2" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -923,219 +931,219 @@
       <c r="G3">
         <v>0.5</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="H4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="16">
         <v>1</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="H5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="16">
         <v>1</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="21">
+      <c r="H6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="16">
         <v>3</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="21">
+      <c r="H7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" s="16">
         <v>4</v>
       </c>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="21">
+      <c r="H8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" s="16">
         <v>5</v>
       </c>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="20" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AA9" s="20"/>
+      <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB10" s="21">
+      <c r="H10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="16">
         <v>7</v>
       </c>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="AG11" s="21">
+      <c r="H11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="AG11" s="16">
         <v>8</v>
       </c>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
       <c r="G12">
         <v>2</v>
       </c>
@@ -1144,12 +1152,12 @@
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
@@ -1159,76 +1167,76 @@
       </c>
     </row>
     <row r="14" spans="1:68">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
     </row>
     <row r="15" spans="1:68">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15">
         <v>1</v>
       </c>
@@ -1238,21 +1246,21 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:68">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1262,21 +1270,21 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:70">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1286,21 +1294,21 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:70">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -1310,234 +1318,234 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:70">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19">
         <v>5</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="21">
+      <c r="H19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="16">
         <v>4</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="1:70">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="21">
+      <c r="H20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="16">
         <v>4</v>
       </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21">
         <v>7</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="R21" s="21">
+      <c r="H21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="16">
         <v>6</v>
       </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
     </row>
     <row r="22" spans="1:70">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
       <c r="E22">
         <v>8</v>
       </c>
       <c r="F22">
         <v>6</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X22" s="20" t="s">
+      <c r="H22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:70">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD23" s="21">
+      <c r="H23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD23" s="16">
         <v>8</v>
       </c>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
     </row>
     <row r="24" spans="1:70">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24">
         <v>10</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="X24" s="21">
+      <c r="H24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="X24" s="16">
         <v>5</v>
       </c>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
     </row>
     <row r="25" spans="1:70">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25">
         <v>11</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="H25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:70">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26">
         <v>12</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:70">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:70">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="F28">
         <f>SUM(F15:F26)</f>
         <v>48</v>
@@ -1547,198 +1555,198 @@
       </c>
     </row>
     <row r="29" spans="1:70">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="4"/>
-      <c r="AV29" s="4"/>
-      <c r="AW29" s="4"/>
-      <c r="AX29" s="4"/>
-      <c r="AY29" s="4"/>
-      <c r="AZ29" s="4"/>
-      <c r="BA29" s="4"/>
-      <c r="BB29" s="4"/>
-      <c r="BC29" s="4"/>
-      <c r="BD29" s="4"/>
-      <c r="BE29" s="4"/>
-      <c r="BF29" s="4"/>
-      <c r="BG29" s="4"/>
-      <c r="BH29" s="4"/>
-      <c r="BI29" s="4"/>
-      <c r="BJ29" s="4"/>
-      <c r="BK29" s="4"/>
-      <c r="BL29" s="4"/>
-      <c r="BM29" s="4"/>
-      <c r="BN29" s="4"/>
-      <c r="BO29" s="4"/>
-      <c r="BP29" s="4"/>
-      <c r="BQ29" s="4"/>
-      <c r="BR29" s="4"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
     </row>
     <row r="30" spans="1:70">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:70">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="21">
+      <c r="I31" s="13"/>
+      <c r="J31" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:70">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="21">
+      <c r="J32" s="13"/>
+      <c r="K32" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:65">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="21">
+      <c r="K33" s="13"/>
+      <c r="L33" s="16">
         <v>3</v>
       </c>
-      <c r="M33" s="20"/>
+      <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:65">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34">
         <v>5</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:65">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:65">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="F36">
         <v>6</v>
       </c>
@@ -1747,81 +1755,81 @@
       </c>
     </row>
     <row r="37" spans="1:65">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-      <c r="BF37" s="4"/>
-      <c r="BG37" s="4"/>
-      <c r="BH37" s="4"/>
-      <c r="BI37" s="4"/>
-      <c r="BJ37" s="4"/>
-      <c r="BK37" s="4"/>
-      <c r="BL37" s="4"/>
-      <c r="BM37" s="4"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
     </row>
     <row r="38" spans="1:65">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38">
         <v>1</v>
       </c>
@@ -1831,299 +1839,299 @@
       <c r="G38">
         <v>1.5</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:65">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39">
         <v>6</v>
       </c>
-      <c r="H39" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O39" s="21">
+      <c r="H39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O39" s="16">
         <v>1</v>
       </c>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
     </row>
     <row r="40" spans="1:65">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40">
         <v>5</v>
       </c>
-      <c r="H40" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" s="21">
+      <c r="H40" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="U40" s="16">
         <v>2</v>
       </c>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
     </row>
     <row r="41" spans="1:65">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41">
         <v>16</v>
       </c>
-      <c r="H41" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="15"/>
+      <c r="H41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
     </row>
     <row r="42" spans="1:65">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42">
         <v>5</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="6">
         <v>6</v>
       </c>
-      <c r="H42" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="15"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
-      <c r="AR42" s="15"/>
-      <c r="AS42" s="15"/>
+      <c r="H42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
     </row>
     <row r="43" spans="1:65">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43">
         <v>6</v>
       </c>
       <c r="F43">
         <v>20</v>
       </c>
-      <c r="H43" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z43" s="20" t="s">
+      <c r="H43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-      <c r="AJ43" s="20"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
-      <c r="AM43" s="20"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="20"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
-      <c r="AS43" s="20"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
     </row>
     <row r="44" spans="1:65">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44">
         <v>7</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
-      <c r="H44" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT44" s="20" t="s">
+      <c r="H44" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT44" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AU44" s="20"/>
-      <c r="AV44" s="20"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
     </row>
     <row r="45" spans="1:65">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45">
         <v>8</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT45" s="21">
+      <c r="H45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT45" s="16">
         <v>6</v>
       </c>
-      <c r="AU45" s="20"/>
-      <c r="AV45" s="20"/>
+      <c r="AU45" s="15"/>
+      <c r="AV45" s="15"/>
     </row>
     <row r="46" spans="1:65">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46">
         <v>9</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW46" s="20" t="s">
+      <c r="H46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AX46" s="20"/>
-      <c r="AY46" s="20"/>
-      <c r="AZ46" s="20"/>
+      <c r="AX46" s="15"/>
+      <c r="AY46" s="15"/>
+      <c r="AZ46" s="15"/>
     </row>
     <row r="47" spans="1:65">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:65">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="F48">
         <f>SUM(F38:F46)</f>
         <v>69</v>
@@ -2133,85 +2141,85 @@
       </c>
     </row>
     <row r="49" spans="1:69">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-      <c r="AH49" s="4"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="4"/>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="4"/>
-      <c r="AR49" s="4"/>
-      <c r="AS49" s="4"/>
-      <c r="AT49" s="4"/>
-      <c r="AU49" s="4"/>
-      <c r="AV49" s="4"/>
-      <c r="AW49" s="4"/>
-      <c r="AX49" s="4"/>
-      <c r="AY49" s="4"/>
-      <c r="AZ49" s="4"/>
-      <c r="BA49" s="4"/>
-      <c r="BB49" s="4"/>
-      <c r="BC49" s="4"/>
-      <c r="BD49" s="4"/>
-      <c r="BE49" s="4"/>
-      <c r="BF49" s="4"/>
-      <c r="BG49" s="4"/>
-      <c r="BH49" s="4"/>
-      <c r="BI49" s="4"/>
-      <c r="BJ49" s="4"/>
-      <c r="BK49" s="4"/>
-      <c r="BL49" s="4"/>
-      <c r="BM49" s="4"/>
-      <c r="BN49" s="4"/>
-      <c r="BO49" s="4"/>
-      <c r="BP49" s="4"/>
-      <c r="BQ49" s="4"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="BQ49" s="2"/>
     </row>
     <row r="50" spans="1:69">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50">
         <v>1</v>
       </c>
@@ -2221,18 +2229,18 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:69">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -2242,21 +2250,21 @@
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="23">
+      <c r="J51" s="18">
         <v>1</v>
       </c>
-      <c r="K51" s="11"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:69">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52">
         <v>3</v>
       </c>
@@ -2266,33 +2274,33 @@
       <c r="G52">
         <v>4</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="19">
         <v>2</v>
       </c>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
     </row>
     <row r="53" spans="1:69">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53">
         <v>4</v>
       </c>
@@ -2302,168 +2310,168 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z53" s="21">
+      <c r="H53" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z53" s="16">
         <v>3</v>
       </c>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-      <c r="AJ53" s="20"/>
-      <c r="AK53" s="20"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="18"/>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="18"/>
-      <c r="AR53" s="18"/>
-      <c r="AS53" s="18"/>
-      <c r="AT53" s="18"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
+      <c r="AD53" s="15"/>
+      <c r="AE53" s="15"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="15"/>
+      <c r="AH53" s="15"/>
+      <c r="AI53" s="15"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="15"/>
+      <c r="AL53" s="13"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="13"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="13"/>
+      <c r="AS53" s="13"/>
+      <c r="AT53" s="13"/>
     </row>
     <row r="54" spans="1:69">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54">
         <v>23</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z54" s="21">
+      <c r="H54" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z54" s="16">
         <v>3</v>
       </c>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
-      <c r="AO54" s="20"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="20"/>
-      <c r="AR54" s="20"/>
-      <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
+      <c r="AD54" s="15"/>
+      <c r="AE54" s="15"/>
+      <c r="AF54" s="15"/>
+      <c r="AG54" s="15"/>
+      <c r="AH54" s="15"/>
+      <c r="AI54" s="15"/>
+      <c r="AJ54" s="15"/>
+      <c r="AK54" s="15"/>
+      <c r="AL54" s="15"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="15"/>
+      <c r="AO54" s="15"/>
+      <c r="AP54" s="15"/>
+      <c r="AQ54" s="15"/>
+      <c r="AR54" s="15"/>
+      <c r="AS54" s="15"/>
+      <c r="AT54" s="15"/>
     </row>
     <row r="55" spans="1:69">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55">
         <v>7</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU55" s="21">
+      <c r="H55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU55" s="16">
         <v>5</v>
       </c>
-      <c r="AV55" s="20"/>
-      <c r="AW55" s="20"/>
-      <c r="AX55" s="20"/>
-      <c r="AY55" s="20"/>
-      <c r="AZ55" s="20"/>
-      <c r="BA55" s="20"/>
+      <c r="AV55" s="15"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="15"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
     </row>
     <row r="56" spans="1:69">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56">
         <v>7</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB56" s="21">
+      <c r="H56" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB56" s="16">
         <v>6</v>
       </c>
-      <c r="BC56" s="20"/>
-      <c r="BD56" s="20"/>
-      <c r="BE56" s="20"/>
-      <c r="BF56" s="20"/>
-      <c r="BG56" s="20"/>
-      <c r="BH56" s="20"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="15"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
     </row>
     <row r="57" spans="1:69">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57">
         <v>8</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI57" s="21">
+      <c r="H57" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI57" s="16">
         <v>7</v>
       </c>
-      <c r="BJ57" s="20"/>
-      <c r="BK57" s="20"/>
-      <c r="BL57" s="20"/>
-      <c r="BM57" s="20"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="15"/>
+      <c r="BL57" s="15"/>
+      <c r="BM57" s="15"/>
     </row>
     <row r="58" spans="1:69">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58">
         <v>3</v>
       </c>
-      <c r="BN58" s="21">
+      <c r="BN58" s="16">
         <v>8</v>
       </c>
-      <c r="BO58" s="20"/>
+      <c r="BO58" s="15"/>
     </row>
     <row r="59" spans="1:69">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G59">
@@ -2471,79 +2479,104 @@
       </c>
     </row>
     <row r="60" spans="1:69">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="4"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="4"/>
-      <c r="AO60" s="4"/>
-      <c r="AP60" s="4"/>
-      <c r="AQ60" s="4"/>
-      <c r="AR60" s="4"/>
-      <c r="AS60" s="4"/>
-      <c r="AT60" s="4"/>
-      <c r="AU60" s="4"/>
-      <c r="AV60" s="4"/>
-      <c r="AW60" s="4"/>
-      <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
-      <c r="AZ60" s="4"/>
-      <c r="BA60" s="4"/>
-      <c r="BB60" s="4"/>
-      <c r="BC60" s="4"/>
-      <c r="BD60" s="4"/>
-      <c r="BE60" s="4"/>
-      <c r="BF60" s="4"/>
-      <c r="BG60" s="4"/>
-      <c r="BH60" s="4"/>
-      <c r="BI60" s="4"/>
-      <c r="BJ60" s="4"/>
-      <c r="BK60" s="4"/>
-      <c r="BL60" s="4"/>
-      <c r="BM60" s="4"/>
-      <c r="BN60" s="4"/>
-      <c r="BO60" s="4"/>
-      <c r="BP60" s="4"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2"/>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2"/>
+      <c r="BE60" s="2"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="2"/>
+      <c r="BL60" s="2"/>
+      <c r="BM60" s="2"/>
+      <c r="BN60" s="2"/>
+      <c r="BO60" s="2"/>
+      <c r="BP60" s="2"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73">
+        <v>22.5</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" s="25">
+        <v>22500</v>
+      </c>
+      <c r="D74" s="25">
+        <v>35000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2552,12 +2585,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Documents/GitHub/Trajectory/Documents/Gantt Chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128D33F-7E93-4B7C-9BF5-8B53CFE46A62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9168F83-F5DE-FD43-98EB-3DFD9579A383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -226,6 +229,48 @@
   </si>
   <si>
     <t>Complete total :</t>
+  </si>
+  <si>
+    <t>Feb 12th</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Feb 10th</t>
+  </si>
+  <si>
+    <t>Feb 25th</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Yingruo</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Unity Set up</t>
   </si>
 </sst>
 </file>
@@ -322,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -357,14 +402,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,13 +732,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
-  <dimension ref="A1:BR74"/>
+  <dimension ref="A1:BR84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A67" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:68">
       <c r="A1" s="23" t="s">
@@ -1136,12 +1183,12 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
@@ -1383,12 +1430,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -2474,6 +2521,9 @@
       <c r="A59" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="F59">
+        <v>66</v>
+      </c>
       <c r="G59">
         <v>11</v>
       </c>
@@ -2550,7 +2600,10 @@
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="64" spans="1:69">
+      <c r="B64" s="27"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -2561,22 +2614,115 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="C74" s="25">
+    <row r="74" spans="1:5">
+      <c r="C74" s="21">
         <v>22500</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="21">
         <v>35000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2585,8 +2731,155 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077F90D1-EA8C-3846-ACC0-E1422CD6DDE0}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="20">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20">
+        <v>3</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Documents/GitHub/Trajectory/Documents/Gantt Chart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9168F83-F5DE-FD43-98EB-3DFD9579A383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5CB9D-5A94-4257-ABE6-EB5902078539}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -271,6 +269,33 @@
   </si>
   <si>
     <t>Unity Set up</t>
+  </si>
+  <si>
+    <t>Meet and Greet</t>
+  </si>
+  <si>
+    <t>RFP meeting</t>
+  </si>
+  <si>
+    <t>Group Meeting 1</t>
+  </si>
+  <si>
+    <t>Group meeting 2</t>
+  </si>
+  <si>
+    <t>3 attendees</t>
+  </si>
+  <si>
+    <t>6 attendees</t>
+  </si>
+  <si>
+    <t>5 attendees</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>dollars</t>
   </si>
 </sst>
 </file>
@@ -404,14 +429,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,23 +759,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
   <dimension ref="A1:BR84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:F84"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,12 +988,12 @@
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -976,28 +1001,31 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>52</v>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="J4" s="16">
         <v>1</v>
@@ -1019,12 +1047,12 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -1043,12 +1071,12 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1067,12 +1095,12 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1090,20 +1118,23 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>52</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="X8" s="16">
         <v>5</v>
@@ -1111,12 +1142,12 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1133,12 +1164,12 @@
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1157,12 +1188,12 @@
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1183,12 +1214,12 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
@@ -1199,18 +1230,19 @@
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
       </c>
       <c r="G13">
-        <v>2.5</v>
+        <f>SUM(G3:G12)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -1430,12 +1462,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -1598,6 +1630,7 @@
         <v>48</v>
       </c>
       <c r="G28">
+        <f>SUM(G15:G27)</f>
         <v>5</v>
       </c>
     </row>
@@ -1798,6 +1831,7 @@
         <v>6</v>
       </c>
       <c r="G36">
+        <f>SUM(G30:G35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2184,6 +2218,7 @@
         <v>69</v>
       </c>
       <c r="G48">
+        <f>SUM(G38:G47)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -2525,7 +2560,8 @@
         <v>66</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <f>SUM(G50:G58)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:69">
@@ -2600,26 +2636,68 @@
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
     </row>
+    <row r="62" spans="1:69">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:69">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+    </row>
     <row r="64" spans="1:69">
-      <c r="B64" s="27"/>
+      <c r="B64" s="22"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>64</v>
       </c>
       <c r="C73">
-        <v>22.5</v>
-      </c>
-      <c r="D73">
-        <v>35</v>
+        <f>SUM(G13+G28+G36+G48+G59+A63+D63+G63+J63)</f>
+        <v>53.5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="C74" s="21">
-        <v>22500</v>
-      </c>
-      <c r="D74" s="21">
-        <v>35000</v>
+        <f>C73*100</f>
+        <v>5350</v>
+      </c>
+      <c r="D74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2723,6 +2801,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2731,15 +2815,10 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2747,11 +2826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077F90D1-EA8C-3846-ACC0-E1422CD6DDE0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+    <sheetView zoomScale="128" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20"/>

--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blake\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satan\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5CB9D-5A94-4257-ABE6-EB5902078539}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A973B-43B9-4E4D-8BC1-7C5D8A766A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>Task</t>
   </si>
@@ -296,13 +296,16 @@
   </si>
   <si>
     <t>dollars</t>
+  </si>
+  <si>
+    <t>in Progress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +331,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -392,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -430,13 +440,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,23 +770,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
   <dimension ref="A1:BR84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,12 +999,12 @@
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1009,12 +1020,12 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -1047,12 +1058,12 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -1071,12 +1082,12 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1095,12 +1106,12 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1118,12 +1129,12 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8">
         <v>6</v>
       </c>
@@ -1142,12 +1153,12 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1164,12 +1175,12 @@
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1188,12 +1199,12 @@
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1214,12 +1225,12 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
@@ -1230,12 +1241,12 @@
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
@@ -1462,12 +1473,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -1918,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>48</v>
@@ -1992,23 +2003,26 @@
       <c r="F41">
         <v>16</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
@@ -2049,15 +2063,18 @@
       <c r="F42" s="6">
         <v>6</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
@@ -2219,7 +2236,7 @@
       </c>
       <c r="G48">
         <f>SUM(G38:G47)</f>
-        <v>1.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:69">
@@ -2685,7 +2702,7 @@
       </c>
       <c r="C73">
         <f>SUM(G13+G28+G36+G48+G59+A63+D63+G63+J63)</f>
-        <v>53.5</v>
+        <v>65</v>
       </c>
       <c r="D73" t="s">
         <v>86</v>
@@ -2694,7 +2711,7 @@
     <row r="74" spans="1:5">
       <c r="C74" s="21">
         <f>C73*100</f>
-        <v>5350</v>
+        <v>6500</v>
       </c>
       <c r="D74" t="s">
         <v>87</v>
@@ -2801,12 +2818,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2815,6 +2826,12 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2827,10 +2844,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20"/>
@@ -2913,11 +2930,15 @@
         <v>73</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="C6" s="20">
+        <v>3</v>
+      </c>
       <c r="D6" s="20">
         <v>3</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">

--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satan\Documents\GitHub\Trajectory\Documents\Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Thoms\Desktop\Idaho\2020 1Spring\CS 383\Trajectory\Documents\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A973B-43B9-4E4D-8BC1-7C5D8A766A2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72607B4-75A4-4526-99C8-4ECB55860639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -73,9 +75,6 @@
     <t>Finalization</t>
   </si>
   <si>
-    <t>Lucas Thomas</t>
-  </si>
-  <si>
     <t>Understanding Requirements</t>
   </si>
   <si>
@@ -299,12 +298,42 @@
   </si>
   <si>
     <t>in Progress</t>
+  </si>
+  <si>
+    <t>Integrating MVP</t>
+  </si>
+  <si>
+    <t>Lucas Thoms</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Jan 30th</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -390,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -398,11 +427,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -440,19 +580,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -768,25 +952,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
-  <dimension ref="A1:BR84"/>
+  <dimension ref="A1:BR86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="61" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.9"/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.78515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="27"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,16 +984,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -999,12 +1189,12 @@
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1015,17 +1205,17 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -1036,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="16">
         <v>1</v>
@@ -1058,12 +1248,12 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -1071,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="16">
         <v>1</v>
@@ -1082,12 +1272,12 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1095,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="16">
         <v>3</v>
@@ -1106,12 +1296,12 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1119,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T7" s="16">
         <v>4</v>
@@ -1129,12 +1319,12 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8">
         <v>6</v>
       </c>
@@ -1145,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X8" s="16">
         <v>5</v>
@@ -1153,12 +1343,12 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1167,20 +1357,20 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1188,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB10" s="16">
         <v>7</v>
@@ -1199,12 +1389,12 @@
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1212,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1225,28 +1415,28 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
@@ -1258,7 +1448,7 @@
     </row>
     <row r="14" spans="1:68">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1322,7 +1512,7 @@
     </row>
     <row r="15" spans="1:68">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1337,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1346,7 +1536,7 @@
     </row>
     <row r="16" spans="1:68">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1358,19 +1548,19 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1382,19 +1572,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1406,15 +1596,15 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1422,7 +1612,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1433,16 +1623,19 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>52</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="16">
+      <c r="O19" s="19">
         <v>4</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -1452,7 +1645,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1464,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="16">
         <v>4</v>
@@ -1473,12 +1666,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -1486,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R21" s="16">
         <v>6</v>
@@ -1499,7 +1692,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1511,10 +1704,10 @@
         <v>6</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -1524,7 +1717,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1536,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD23" s="16">
         <v>8</v>
@@ -1549,7 +1742,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1561,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1580,7 +1773,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1592,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -1603,7 +1796,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1621,17 +1814,23 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1642,12 +1841,12 @@
       </c>
       <c r="G28">
         <f>SUM(G15:G27)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1656,15 +1855,33 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2">
+        <v>4</v>
+      </c>
+      <c r="M29" s="2">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2">
+        <v>6</v>
+      </c>
+      <c r="O29" s="2">
+        <v>7</v>
+      </c>
+      <c r="P29" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>9</v>
+      </c>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -1721,7 +1938,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1733,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1751,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="16">
@@ -1760,7 +1977,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1772,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="16">
@@ -1781,7 +1998,7 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1793,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="16">
@@ -1803,7 +2020,7 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1815,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N34" s="16">
         <v>4</v>
@@ -1823,7 +2040,7 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1833,7 +2050,7 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1848,7 +2065,7 @@
     </row>
     <row r="37" spans="1:65">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1917,7 +2134,7 @@
     </row>
     <row r="38" spans="1:65">
       <c r="A38" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -1932,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -1943,7 +2160,7 @@
     </row>
     <row r="39" spans="1:65">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1955,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O39" s="16">
         <v>1</v>
@@ -1968,7 +2185,7 @@
     </row>
     <row r="40" spans="1:65">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1980,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U40" s="16">
         <v>2</v>
@@ -1992,7 +2209,7 @@
     </row>
     <row r="41" spans="1:65">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2007,22 +2224,22 @@
         <v>6</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
@@ -2052,7 +2269,7 @@
     </row>
     <row r="42" spans="1:65">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2067,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -2109,7 +2326,7 @@
     </row>
     <row r="43" spans="1:65">
       <c r="A43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2121,10 +2338,10 @@
         <v>20</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z43" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
@@ -2148,7 +2365,7 @@
     </row>
     <row r="44" spans="1:65">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2160,17 +2377,17 @@
         <v>3</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT44" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AU44" s="15"/>
       <c r="AV44" s="15"/>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2182,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT45" s="16">
         <v>6</v>
@@ -2192,7 +2409,7 @@
     </row>
     <row r="46" spans="1:65">
       <c r="A46" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2204,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AW46" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX46" s="15"/>
       <c r="AY46" s="15"/>
@@ -2215,7 +2432,7 @@
     </row>
     <row r="47" spans="1:65">
       <c r="A47" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2225,7 +2442,7 @@
     </row>
     <row r="48" spans="1:65">
       <c r="A48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2241,7 +2458,7 @@
     </row>
     <row r="49" spans="1:69">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2314,7 +2531,7 @@
     </row>
     <row r="50" spans="1:69">
       <c r="A50" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2329,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:69">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2350,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51" s="18">
         <v>1</v>
@@ -2359,7 +2576,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2374,7 +2591,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L52" s="19">
         <v>2</v>
@@ -2395,7 +2612,7 @@
     </row>
     <row r="53" spans="1:69">
       <c r="A53" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2410,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z53" s="16">
         <v>3</v>
@@ -2438,7 +2655,7 @@
     </row>
     <row r="54" spans="1:69">
       <c r="A54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2450,7 +2667,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z54" s="16">
         <v>3</v>
@@ -2478,7 +2695,7 @@
     </row>
     <row r="55" spans="1:69">
       <c r="A55" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2490,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AU55" s="16">
         <v>5</v>
@@ -2504,7 +2721,7 @@
     </row>
     <row r="56" spans="1:69">
       <c r="A56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2516,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BB56" s="16">
         <v>6</v>
@@ -2530,7 +2747,7 @@
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2542,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BI57" s="16">
         <v>7</v>
@@ -2554,7 +2771,7 @@
     </row>
     <row r="58" spans="1:69">
       <c r="A58" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2571,7 +2788,7 @@
     </row>
     <row r="59" spans="1:69">
       <c r="A59" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59">
         <v>66</v>
@@ -2583,7 +2800,7 @@
     </row>
     <row r="60" spans="1:69">
       <c r="A60" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2655,28 +2872,28 @@
     </row>
     <row r="62" spans="1:69">
       <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" t="s">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s">
         <v>84</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
-      <c r="H62" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" t="s">
-        <v>82</v>
-      </c>
-      <c r="K62" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:69">
@@ -2696,128 +2913,283 @@
     <row r="64" spans="1:69">
       <c r="B64" s="22"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="70" spans="1:16">
+      <c r="H70" s="42"/>
+      <c r="I70" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K70" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="H71" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="46">
+        <f>(F59+F48+F36+F28+F13)*100</f>
+        <v>21700</v>
+      </c>
+      <c r="J71" s="46">
+        <f>(G59+G48+G36+G28+G13)*100</f>
+        <v>4000</v>
+      </c>
+      <c r="K71" s="47">
+        <f>J71-I71</f>
+        <v>-17700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="16.3" thickBot="1">
+      <c r="H72" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" s="41">
+        <v>4800</v>
+      </c>
+      <c r="J72" s="41">
+        <f>SUM(C86:F86)</f>
+        <v>3800</v>
+      </c>
+      <c r="K72" s="49">
+        <f>J72-I72</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="16.3" thickTop="1">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <f>SUM(G13+G28+G36+G48+G59+A63+D63+G63+J63)</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="50">
+        <f>I72+I71</f>
+        <v>26500</v>
+      </c>
+      <c r="J73" s="50">
+        <f t="shared" ref="J73:K73" si="0">J72+J71</f>
+        <v>7800</v>
+      </c>
+      <c r="K73" s="51">
+        <f t="shared" si="0"/>
+        <v>-18700</v>
+      </c>
+      <c r="P73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="C74" s="21">
         <f>C73*100</f>
-        <v>6500</v>
+        <v>7200</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="B76" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D76" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" spans="1:16">
+      <c r="B77" s="34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" t="s">
+      <c r="C77" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" hidden="1">
+      <c r="B78" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="B78" t="s">
+      <c r="C78" s="37"/>
+      <c r="D78" s="37">
+        <v>3</v>
+      </c>
+      <c r="E78" s="37">
+        <v>3</v>
+      </c>
+      <c r="F78" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="B79" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
+      <c r="C79" s="37">
+        <v>1</v>
+      </c>
+      <c r="D79" s="37">
+        <v>3</v>
+      </c>
+      <c r="E79" s="37">
+        <v>3</v>
+      </c>
+      <c r="F79" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="B80" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
+      <c r="C80" s="37">
+        <v>1</v>
+      </c>
+      <c r="D80" s="37">
+        <v>3</v>
+      </c>
+      <c r="E80" s="37">
+        <v>3</v>
+      </c>
+      <c r="F80" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="C81" s="37">
+        <v>1</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37">
+        <v>3</v>
+      </c>
+      <c r="F81" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="C82" s="37">
+        <v>1</v>
+      </c>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37">
+        <v>3</v>
+      </c>
+      <c r="F82" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="D83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84">
-        <v>3</v>
+      <c r="C83" s="37">
+        <v>1</v>
+      </c>
+      <c r="D83" s="37">
+        <v>3</v>
+      </c>
+      <c r="E83" s="37">
+        <v>3</v>
+      </c>
+      <c r="F83" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="16.3" thickBot="1">
+      <c r="B84" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="29">
+        <v>1</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29">
+        <v>3</v>
+      </c>
+      <c r="F84" s="40"/>
+    </row>
+    <row r="85" spans="2:6" ht="16.3" thickTop="1">
+      <c r="B85" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="37">
+        <f>SUM(C79:C84)</f>
+        <v>6</v>
+      </c>
+      <c r="D85" s="37">
+        <f t="shared" ref="D85:F85" si="1">SUM(D79:D84)</f>
+        <v>9</v>
+      </c>
+      <c r="E85" s="37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F85" s="38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="30">
+        <f>C85*100</f>
+        <v>600</v>
+      </c>
+      <c r="D86" s="30">
+        <f>D85*100</f>
+        <v>900</v>
+      </c>
+      <c r="E86" s="30">
+        <f t="shared" ref="E86:F86" si="2">E85*100</f>
+        <v>1800</v>
+      </c>
+      <c r="F86" s="35">
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -2826,14 +3198,18 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K71:K72">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2847,44 +3223,44 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.9"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>68</v>
       </c>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="20">
         <v>3</v>
@@ -2899,7 +3275,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20">
@@ -2913,7 +3289,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20">
@@ -2927,7 +3303,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20">
@@ -2943,7 +3319,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2955,7 +3331,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20">
@@ -2969,7 +3345,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>

--- a/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
+++ b/Documents/Gantt Chart/Gantt_Weekly_Status1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Thoms\Desktop\Idaho\2020 1Spring\CS 383\Trajectory\Documents\Gantt Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Documents/GitHub/Trajectory/Documents/Gantt Chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72607B4-75A4-4526-99C8-4ECB55860639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9168F83-F5DE-FD43-98EB-3DFD9579A383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="15260" activeTab="1" xr2:uid="{E656BF53-8C2F-9143-90A0-23AA440D0AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>Task</t>
   </si>
@@ -75,6 +75,9 @@
     <t>Finalization</t>
   </si>
   <si>
+    <t>Lucas Thomas</t>
+  </si>
+  <si>
     <t>Understanding Requirements</t>
   </si>
   <si>
@@ -268,73 +271,13 @@
   </si>
   <si>
     <t>Unity Set up</t>
-  </si>
-  <si>
-    <t>Meet and Greet</t>
-  </si>
-  <si>
-    <t>RFP meeting</t>
-  </si>
-  <si>
-    <t>Group Meeting 1</t>
-  </si>
-  <si>
-    <t>Group meeting 2</t>
-  </si>
-  <si>
-    <t>3 attendees</t>
-  </si>
-  <si>
-    <t>6 attendees</t>
-  </si>
-  <si>
-    <t>5 attendees</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>dollars</t>
-  </si>
-  <si>
-    <t>in Progress</t>
-  </si>
-  <si>
-    <t>Integrating MVP</t>
-  </si>
-  <si>
-    <t>Lucas Thoms</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Jan 30th</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>Meetings</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,13 +303,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -419,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -427,122 +363,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,64 +404,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -952,31 +732,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1596FC7-FBA9-FA4D-A1A3-B3A3B96D1437}">
-  <dimension ref="A1:BR86"/>
+  <dimension ref="A1:BR84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView topLeftCell="A67" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.9"/>
-  <cols>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.78515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:68">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="23"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -984,16 +758,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -1189,12 +963,12 @@
       </c>
     </row>
     <row r="3" spans="1:68">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1202,31 +976,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:68">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>48</v>
+      <c r="H4" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="J4" s="16">
         <v>1</v>
@@ -1248,12 +1019,12 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:68">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -1261,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="16">
         <v>1</v>
@@ -1272,12 +1043,12 @@
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:68">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -1285,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="16">
         <v>3</v>
@@ -1296,12 +1067,12 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:68">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -1309,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T7" s="16">
         <v>4</v>
@@ -1319,23 +1090,20 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:68">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>47</v>
+      <c r="H8" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="X8" s="16">
         <v>5</v>
@@ -1343,12 +1111,12 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:68">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9">
         <v>7</v>
       </c>
@@ -1357,20 +1125,20 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA9" s="15"/>
     </row>
     <row r="10" spans="1:68">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10">
         <v>8</v>
       </c>
@@ -1378,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AB10" s="16">
         <v>7</v>
@@ -1389,12 +1157,12 @@
       <c r="AF10" s="15"/>
     </row>
     <row r="11" spans="1:68">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11">
         <v>9</v>
       </c>
@@ -1402,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1415,40 +1183,39 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:68">
-      <c r="A12" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:68">
-      <c r="A13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="F13">
         <f>SUM(F3:F11)</f>
         <v>28</v>
       </c>
       <c r="G13">
-        <f>SUM(G3:G12)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:68">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1512,7 +1279,7 @@
     </row>
     <row r="15" spans="1:68">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1527,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1536,7 +1303,7 @@
     </row>
     <row r="16" spans="1:68">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1548,19 +1315,19 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:70">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1572,19 +1339,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:70">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1596,15 +1363,15 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -1612,7 +1379,7 @@
     </row>
     <row r="19" spans="1:70">
       <c r="A19" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1623,19 +1390,16 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>47</v>
+      <c r="H19" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <v>4</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -1645,7 +1409,7 @@
     </row>
     <row r="20" spans="1:70">
       <c r="A20" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1657,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O20" s="16">
         <v>4</v>
@@ -1666,12 +1430,12 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="A21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="A21" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21">
         <v>7</v>
       </c>
@@ -1679,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R21" s="16">
         <v>6</v>
@@ -1692,7 +1456,7 @@
     </row>
     <row r="22" spans="1:70">
       <c r="A22" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1704,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X22" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -1717,7 +1481,7 @@
     </row>
     <row r="23" spans="1:70">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1729,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD23" s="16">
         <v>8</v>
@@ -1742,7 +1506,7 @@
     </row>
     <row r="24" spans="1:70">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1754,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1773,7 +1537,7 @@
     </row>
     <row r="25" spans="1:70">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1785,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
@@ -1796,7 +1560,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1814,23 +1578,17 @@
     </row>
     <row r="27" spans="1:70">
       <c r="A27" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="28" spans="1:70">
       <c r="A28" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1840,13 +1598,12 @@
         <v>48</v>
       </c>
       <c r="G28">
-        <f>SUM(G15:G27)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:70">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1855,33 +1612,15 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>3</v>
-      </c>
-      <c r="L29" s="2">
-        <v>4</v>
-      </c>
-      <c r="M29" s="2">
-        <v>5</v>
-      </c>
-      <c r="N29" s="2">
-        <v>6</v>
-      </c>
-      <c r="O29" s="2">
-        <v>7</v>
-      </c>
-      <c r="P29" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>9</v>
-      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
@@ -1938,7 +1677,7 @@
     </row>
     <row r="30" spans="1:70">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1950,13 +1689,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:70">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1968,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="16">
@@ -1977,7 +1716,7 @@
     </row>
     <row r="32" spans="1:70">
       <c r="A32" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1989,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="16">
@@ -1998,7 +1737,7 @@
     </row>
     <row r="33" spans="1:65">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2010,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="16">
@@ -2020,7 +1759,7 @@
     </row>
     <row r="34" spans="1:65">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2032,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N34" s="16">
         <v>4</v>
@@ -2040,7 +1779,7 @@
     </row>
     <row r="35" spans="1:65">
       <c r="A35" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -2050,7 +1789,7 @@
     </row>
     <row r="36" spans="1:65">
       <c r="A36" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2059,13 +1798,12 @@
         <v>6</v>
       </c>
       <c r="G36">
-        <f>SUM(G30:G35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:65">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2134,7 +1872,7 @@
     </row>
     <row r="38" spans="1:65">
       <c r="A38" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2146,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -2160,7 +1898,7 @@
     </row>
     <row r="39" spans="1:65">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2172,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O39" s="16">
         <v>1</v>
@@ -2185,7 +1923,7 @@
     </row>
     <row r="40" spans="1:65">
       <c r="A40" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2197,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" s="16">
         <v>2</v>
@@ -2209,7 +1947,7 @@
     </row>
     <row r="41" spans="1:65">
       <c r="A41" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2220,26 +1958,23 @@
       <c r="F41">
         <v>16</v>
       </c>
-      <c r="G41">
-        <v>6</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
+      <c r="H41" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
@@ -2269,7 +2004,7 @@
     </row>
     <row r="42" spans="1:65">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2280,18 +2015,15 @@
       <c r="F42" s="6">
         <v>6</v>
       </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="H42" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
@@ -2326,7 +2058,7 @@
     </row>
     <row r="43" spans="1:65">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2338,10 +2070,10 @@
         <v>20</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z43" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA43" s="15"/>
       <c r="AB43" s="15"/>
@@ -2365,7 +2097,7 @@
     </row>
     <row r="44" spans="1:65">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2377,17 +2109,17 @@
         <v>3</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT44" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AU44" s="15"/>
       <c r="AV44" s="15"/>
     </row>
     <row r="45" spans="1:65">
       <c r="A45" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2399,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AT45" s="16">
         <v>6</v>
@@ -2409,7 +2141,7 @@
     </row>
     <row r="46" spans="1:65">
       <c r="A46" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2421,10 +2153,10 @@
         <v>4</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AW46" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AX46" s="15"/>
       <c r="AY46" s="15"/>
@@ -2432,7 +2164,7 @@
     </row>
     <row r="47" spans="1:65">
       <c r="A47" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2442,7 +2174,7 @@
     </row>
     <row r="48" spans="1:65">
       <c r="A48" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2452,13 +2184,12 @@
         <v>69</v>
       </c>
       <c r="G48">
-        <f>SUM(G38:G47)</f>
-        <v>13</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:69">
       <c r="A49" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2531,7 +2262,7 @@
     </row>
     <row r="50" spans="1:69">
       <c r="A50" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2546,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I50" s="7"/>
     </row>
     <row r="51" spans="1:69">
       <c r="A51" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2567,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J51" s="18">
         <v>1</v>
@@ -2576,7 +2307,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2591,7 +2322,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L52" s="19">
         <v>2</v>
@@ -2612,7 +2343,7 @@
     </row>
     <row r="53" spans="1:69">
       <c r="A53" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2627,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z53" s="16">
         <v>3</v>
@@ -2655,7 +2386,7 @@
     </row>
     <row r="54" spans="1:69">
       <c r="A54" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2667,7 +2398,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z54" s="16">
         <v>3</v>
@@ -2695,7 +2426,7 @@
     </row>
     <row r="55" spans="1:69">
       <c r="A55" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2707,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AU55" s="16">
         <v>5</v>
@@ -2721,7 +2452,7 @@
     </row>
     <row r="56" spans="1:69">
       <c r="A56" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2733,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB56" s="16">
         <v>6</v>
@@ -2747,7 +2478,7 @@
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2759,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BI57" s="16">
         <v>7</v>
@@ -2771,7 +2502,7 @@
     </row>
     <row r="58" spans="1:69">
       <c r="A58" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2788,19 +2519,18 @@
     </row>
     <row r="59" spans="1:69">
       <c r="A59" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F59">
         <v>66</v>
       </c>
       <c r="G59">
-        <f>SUM(G50:G58)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:69">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2870,326 +2600,129 @@
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
     </row>
-    <row r="62" spans="1:69">
-      <c r="A62" t="s">
+    <row r="64" spans="1:69">
+      <c r="B64" s="27"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73">
+        <v>22.5</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="C74" s="21">
+        <v>22500</v>
+      </c>
+      <c r="D74" s="21">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" t="s">
         <v>78</v>
       </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" t="s">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:69">
-      <c r="A63">
-        <v>6</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="G63">
-        <v>15</v>
-      </c>
-      <c r="J63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:69">
-      <c r="B64" s="22"/>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="H70" s="42"/>
-      <c r="I70" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J70" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="K70" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="H71" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="46">
-        <f>(F59+F48+F36+F28+F13)*100</f>
-        <v>21700</v>
-      </c>
-      <c r="J71" s="46">
-        <f>(G59+G48+G36+G28+G13)*100</f>
-        <v>4000</v>
-      </c>
-      <c r="K71" s="47">
-        <f>J71-I71</f>
-        <v>-17700</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="16.3" thickBot="1">
-      <c r="H72" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="I72" s="41">
-        <v>4800</v>
-      </c>
-      <c r="J72" s="41">
-        <f>SUM(C86:F86)</f>
-        <v>3800</v>
-      </c>
-      <c r="K72" s="49">
-        <f>J72-I72</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="16.3" thickTop="1">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73">
-        <f>SUM(G13+G28+G36+G48+G59+A63+D63+G63+J63)</f>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>72</v>
       </c>
-      <c r="D73" t="s">
-        <v>85</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I73" s="50">
-        <f>I72+I71</f>
-        <v>26500</v>
-      </c>
-      <c r="J73" s="50">
-        <f t="shared" ref="J73:K73" si="0">J72+J71</f>
-        <v>7800</v>
-      </c>
-      <c r="K73" s="51">
-        <f t="shared" si="0"/>
-        <v>-18700</v>
-      </c>
-      <c r="P73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="C74" s="21">
-        <f>C73*100</f>
-        <v>7200</v>
-      </c>
-      <c r="D74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="B76" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
-      <c r="B77" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="30" t="s">
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" hidden="1">
-      <c r="B78" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37">
-        <v>3</v>
-      </c>
-      <c r="E78" s="37">
-        <v>3</v>
-      </c>
-      <c r="F78" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="B79" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="37">
-        <v>1</v>
-      </c>
-      <c r="D79" s="37">
-        <v>3</v>
-      </c>
-      <c r="E79" s="37">
-        <v>3</v>
-      </c>
-      <c r="F79" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
-      <c r="B80" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="37">
-        <v>1</v>
-      </c>
-      <c r="D80" s="37">
-        <v>3</v>
-      </c>
-      <c r="E80" s="37">
-        <v>3</v>
-      </c>
-      <c r="F80" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="37">
-        <v>1</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37">
-        <v>3</v>
-      </c>
-      <c r="F81" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="37">
-        <v>1</v>
-      </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37">
-        <v>3</v>
-      </c>
-      <c r="F82" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="37">
-        <v>1</v>
-      </c>
-      <c r="D83" s="37">
-        <v>3</v>
-      </c>
-      <c r="E83" s="37">
-        <v>3</v>
-      </c>
-      <c r="F83" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="16.3" thickBot="1">
-      <c r="B84" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="29">
-        <v>1</v>
-      </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29">
-        <v>3</v>
-      </c>
-      <c r="F84" s="40"/>
-    </row>
-    <row r="85" spans="2:6" ht="16.3" thickTop="1">
-      <c r="B85" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="37">
-        <f>SUM(C79:C84)</f>
-        <v>6</v>
-      </c>
-      <c r="D85" s="37">
-        <f t="shared" ref="D85:F85" si="1">SUM(D79:D84)</f>
-        <v>9</v>
-      </c>
-      <c r="E85" s="37">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F85" s="38">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C86" s="30">
-        <f>C85*100</f>
-        <v>600</v>
-      </c>
-      <c r="D86" s="30">
-        <f>D85*100</f>
-        <v>900</v>
-      </c>
-      <c r="E86" s="30">
-        <f t="shared" ref="E86:F86" si="2">E85*100</f>
-        <v>1800</v>
-      </c>
-      <c r="F86" s="35">
-        <f t="shared" si="2"/>
-        <v>500</v>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A7:D7"/>
@@ -3198,20 +2731,15 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K71:K72">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K73">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3219,48 +2747,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077F90D1-EA8C-3846-ACC0-E1422CD6DDE0}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.9"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E1" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="20">
         <v>3</v>
@@ -3275,7 +2803,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20">
@@ -3289,7 +2817,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20">
@@ -3303,23 +2831,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="20">
-        <v>3</v>
-      </c>
+      <c r="C6" s="20"/>
       <c r="D6" s="20">
         <v>3</v>
       </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -3331,7 +2855,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20">
@@ -3345,7 +2869,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
